--- a/Produce/xls/PlayerFeatureConfig.xlsx
+++ b/Produce/xls/PlayerFeatureConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>#todo</t>
   </si>
@@ -37,15 +37,18 @@
     <t>ColorStr</t>
   </si>
   <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>#颜色说明</t>
   </si>
   <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>#屏蔽不转</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>概率</t>
   </si>
   <si>
+    <t>占用格子</t>
+  </si>
+  <si>
     <t>特性描述</t>
   </si>
   <si>
@@ -103,12 +109,12 @@
     <t>FF0000</t>
   </si>
   <si>
+    <t>Joker数目+1</t>
+  </si>
+  <si>
     <t>红色</t>
   </si>
   <si>
-    <t>Joker数目+1</t>
-  </si>
-  <si>
     <t>入场时BOSS先攻击</t>
   </si>
   <si>
@@ -121,12 +127,12 @@
     <t>FFD200</t>
   </si>
   <si>
+    <t>非感化会受到君主伤害</t>
+  </si>
+  <si>
     <t>橙色</t>
   </si>
   <si>
-    <t>非感化会受到君主伤害</t>
-  </si>
-  <si>
     <t>抵挡伤害</t>
   </si>
   <si>
@@ -154,10 +160,10 @@
     <t>13FF00</t>
   </si>
   <si>
+    <t>回合开始恢复20%最大血量</t>
+  </si>
+  <si>
     <t>绿色</t>
-  </si>
-  <si>
-    <t>回合开始恢复20%最大血量</t>
   </si>
   <si>
     <t>回合结束恢复血量</t>
@@ -219,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -253,6 +259,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -261,22 +275,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,83 +373,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,14 +397,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -424,43 +430,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,139 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,47 +642,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,6 +672,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -723,145 +729,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,10 +1241,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1246,12 +1252,12 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
     <col min="3" max="4" width="19.8916666666667" style="2" customWidth="1"/>
-    <col min="5" max="10" width="28.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="56.125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="5" max="11" width="28.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="56.125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1279,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1285,325 +1291,358 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="2:12">
+    <row r="2" ht="14.25" spans="2:13">
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="2:12">
+    <row r="3" ht="15" spans="2:13">
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" ht="15" spans="2:12">
+    <row r="4" ht="15" spans="2:13">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
       </c>
       <c r="I4" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" ht="15" spans="2:12">
+    <row r="5" ht="15" spans="2:13">
       <c r="B5" s="2">
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" ht="15" spans="2:12">
+    <row r="6" ht="15" spans="2:13">
       <c r="B6" s="2">
         <v>1003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
       </c>
       <c r="I6" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7" s="2">
         <v>1004</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
       </c>
       <c r="I7" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:13">
       <c r="B8" s="2">
         <v>1005</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
       </c>
       <c r="I8" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:12">
       <c r="B9" s="2">
         <v>1006</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:12">
       <c r="B10" s="2">
         <v>1007</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
       </c>
       <c r="I10" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:12">
       <c r="B11" s="2">
         <v>1008</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
       </c>
       <c r="I11" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -1611,25 +1650,28 @@
         <v>1009</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
       </c>
       <c r="I12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/PlayerFeatureConfig.xlsx
+++ b/Produce/xls/PlayerFeatureConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>#todo</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>贪婪阴霾</t>
+  </si>
+  <si>
+    <t>苦行僧</t>
+  </si>
+  <si>
+    <t>[1005]</t>
+  </si>
+  <si>
+    <t>只能打出11/21点数的卡，而且无法感化君主，但是可以无视出牌规则</t>
   </si>
 </sst>
 </file>
@@ -225,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,6 +268,96 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -267,48 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -317,46 +374,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -371,37 +411,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -430,31 +439,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,151 +559,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,11 +648,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,24 +695,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,28 +713,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,10 +738,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,133 +750,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,10 +1250,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1252,7 +1261,9 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
     <col min="3" max="4" width="19.8916666666667" style="2" customWidth="1"/>
-    <col min="5" max="11" width="28.25" style="2" customWidth="1"/>
+    <col min="5" max="9" width="28.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="59.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="56.125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
@@ -1373,7 +1384,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
@@ -1385,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1411,7 +1422,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>35</v>
@@ -1423,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="H5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1449,7 +1460,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
@@ -1461,7 +1472,7 @@
         <v>42</v>
       </c>
       <c r="H6" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1484,7 +1495,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>46</v>
@@ -1496,7 +1507,7 @@
         <v>47</v>
       </c>
       <c r="H7" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1522,7 +1533,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>52</v>
@@ -1534,7 +1545,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -1557,7 +1568,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>56</v>
@@ -1569,7 +1580,7 @@
         <v>57</v>
       </c>
       <c r="H9" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -1589,7 +1600,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>60</v>
@@ -1601,7 +1612,7 @@
         <v>57</v>
       </c>
       <c r="H10" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1621,7 +1632,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>63</v>
@@ -1633,7 +1644,7 @@
         <v>36</v>
       </c>
       <c r="H11" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -1653,7 +1664,7 @@
         <v>66</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -1665,13 +1676,42 @@
         <v>42</v>
       </c>
       <c r="H12" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/PlayerFeatureConfig.xlsx
+++ b/Produce/xls/PlayerFeatureConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerFeatureConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>#todo</t>
   </si>
@@ -28,6 +28,9 @@
     <t>SR</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
     <t>BuffIDArray</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>稀有度</t>
   </si>
   <si>
+    <t>开局可选</t>
+  </si>
+  <si>
     <t>BuffID数组</t>
   </si>
   <si>
@@ -226,7 +232,7 @@
     <t>[1005]</t>
   </si>
   <si>
-    <t>只能打出11/21点数的卡，而且无法感化君主，但是可以无视出牌规则</t>
+    <t>只能打出11/21点数的卡，但是可以无视出牌规则</t>
   </si>
 </sst>
 </file>
@@ -235,8 +241,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -268,6 +274,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -284,7 +305,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,15 +356,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,56 +381,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,6 +391,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,25 +411,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -439,181 +445,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,6 +636,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,21 +679,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -674,32 +689,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,17 +705,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,145 +744,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,25 +1256,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="4" width="19.8916666666667" style="2" customWidth="1"/>
-    <col min="5" max="9" width="28.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="59.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="56.125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="19.8916666666667" style="2" customWidth="1"/>
+    <col min="6" max="10" width="28.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="59.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="56.125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1299,419 +1305,458 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="2:13">
+    <row r="2" ht="14.25" spans="2:14">
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>16</v>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="2:13">
+    <row r="3" ht="15" spans="2:14">
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" ht="15" spans="2:13">
+    <row r="4" ht="15" spans="2:14">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" ht="15" spans="2:13">
+    <row r="5" ht="15" spans="2:14">
       <c r="B5" s="2">
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" ht="15" spans="2:13">
+    <row r="6" ht="15" spans="2:14">
       <c r="B6" s="2">
         <v>1003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:14">
       <c r="B7" s="2">
         <v>1004</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:14">
       <c r="B8" s="2">
         <v>1005</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:13">
       <c r="B9" s="2">
         <v>1006</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:13">
       <c r="B10" s="2">
         <v>1007</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:13">
       <c r="B11" s="2">
         <v>1008</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:11">
       <c r="B12" s="2">
         <v>1009</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:11">
       <c r="B13" s="2">
         <v>1010</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="2">
         <v>10</v>
       </c>
-      <c r="I13" s="2">
-        <v>3</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>70</v>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/PlayerFeatureConfig.xlsx
+++ b/Produce/xls/PlayerFeatureConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>#todo</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Start</t>
   </si>
   <si>
+    <t>CanUse</t>
+  </si>
+  <si>
     <t>BuffIDArray</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>开局可选</t>
   </si>
   <si>
+    <t>是否主动</t>
+  </si>
+  <si>
     <t>BuffID数组</t>
   </si>
   <si>
@@ -233,6 +239,24 @@
   </si>
   <si>
     <t>只能打出11/21点数的卡，但是可以无视出牌规则</t>
+  </si>
+  <si>
+    <t>赌狗</t>
+  </si>
+  <si>
+    <t>概率伤害翻倍，或者伤害减半</t>
+  </si>
+  <si>
+    <t>赌神</t>
+  </si>
+  <si>
+    <t>大概率伤害翻倍，或者小伤害减半</t>
+  </si>
+  <si>
+    <t>塔罗牌XXI·世界</t>
+  </si>
+  <si>
+    <t>整个世界皆在眼前（你可以查看整个牌堆顺序）</t>
   </si>
 </sst>
 </file>
@@ -240,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -274,6 +298,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -282,37 +388,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,92 +436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,187 +469,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,30 +660,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -678,17 +678,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +720,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -722,16 +746,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -744,145 +768,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,25 +1280,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="5" width="19.8916666666667" style="2" customWidth="1"/>
-    <col min="6" max="10" width="28.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="59.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="28.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="56.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="3" max="6" width="19.8916666666667" style="2" customWidth="1"/>
+    <col min="7" max="11" width="28.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="59.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="56.125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1308,95 +1332,104 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="2:14">
+    <row r="2" ht="14.25" spans="2:15">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>17</v>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="2:14">
+    <row r="3" ht="15" spans="2:15">
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" ht="15" spans="2:14">
+    <row r="4" ht="15" spans="2:15">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -1404,40 +1437,43 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" ht="15" spans="2:14">
+    <row r="5" ht="15" spans="2:15">
       <c r="B5" s="2">
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -1445,40 +1481,43 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" ht="15" spans="2:14">
+    <row r="6" ht="15" spans="2:15">
       <c r="B6" s="2">
         <v>1003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -1486,37 +1525,40 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="N6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:15">
       <c r="B7" s="2">
         <v>1004</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -1524,40 +1566,43 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:15">
       <c r="B8" s="2">
         <v>1005</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -1565,37 +1610,40 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:14">
       <c r="B9" s="2">
         <v>1006</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -1603,34 +1651,37 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:14">
       <c r="B10" s="2">
         <v>1007</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -1638,34 +1689,37 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:14">
       <c r="B11" s="2">
         <v>1008</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -1673,34 +1727,37 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:12">
       <c r="B12" s="2">
         <v>1009</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -1708,31 +1765,34 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>69</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:12">
       <c r="B13" s="2">
         <v>1010</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -1740,23 +1800,131 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2">
         <v>10</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>72</v>
+      <c r="L13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="2">
+        <v>1011</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="2">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="2">
+        <v>1012</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="2">
+        <v>1013</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
